--- a/delphin_6_automation/sampling/input_files/Plaster.xlsx
+++ b/delphin_6_automation/sampling/input_files/Plaster.xlsx
@@ -19,12 +19,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Material ID</t>
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Lime Cement Mortar (High Cement Ratio)</t>
+  </si>
+  <si>
+    <t>Lime Cement Mortar (Low Cement Ratio)</t>
   </si>
 </sst>
 </file>
@@ -368,7 +374,7 @@
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -386,10 +392,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2">
+        <v>717</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2">
+        <v>718</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>

--- a/delphin_6_automation/sampling/input_files/Plaster.xlsx
+++ b/delphin_6_automation/sampling/input_files/Plaster.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Material ID</t>
   </si>
@@ -31,6 +31,27 @@
   </si>
   <si>
     <t>Lime Cement Mortar (Low Cement Ratio)</t>
+  </si>
+  <si>
+    <t>Lime Plaster Fine</t>
+  </si>
+  <si>
+    <t>Lime Cement Mortar</t>
+  </si>
+  <si>
+    <t>Lime Cement Plaster</t>
+  </si>
+  <si>
+    <t>Lime Plaster</t>
+  </si>
+  <si>
+    <t>Lime Plaster Historical</t>
+  </si>
+  <si>
+    <t>Lime Plaster Bolonga</t>
+  </si>
+  <si>
+    <t>Lime Cement Plaster Light</t>
   </si>
 </sst>
 </file>
@@ -374,7 +395,7 @@
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -408,28 +429,68 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2">
+        <v>628</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2">
+        <v>143</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2">
+        <v>145</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2">
+        <v>150</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2">
+        <v>148</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2">
+        <v>520</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2">
+        <v>629</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2">
+        <v>630</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>

--- a/delphin_6_automation/sampling/input_files/Plaster.xlsx
+++ b/delphin_6_automation/sampling/input_files/Plaster.xlsx
@@ -395,7 +395,7 @@
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -414,82 +414,82 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>717</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>718</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>628</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>145</v>
+        <v>520</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>150</v>
+        <v>628</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>148</v>
+        <v>629</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>520</v>
+        <v>630</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>629</v>
+        <v>717</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>630</v>
+        <v>718</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -646,8 +646,8 @@
       <c r="A62" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B62">
-    <sortCondition ref="A2:A62"/>
+  <sortState ref="A2:B11">
+    <sortCondition ref="A2:A11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/delphin_6_automation/sampling/input_files/Plaster.xlsx
+++ b/delphin_6_automation/sampling/input_files/Plaster.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Material ID</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Lime Cement Plaster Light</t>
+  </si>
+  <si>
+    <t>DTUMortar</t>
   </si>
 </sst>
 </file>
@@ -395,7 +398,7 @@
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,7 +496,12 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2">
+        <v>902</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>

--- a/delphin_6_automation/sampling/input_files/Plaster.xlsx
+++ b/delphin_6_automation/sampling/input_files/Plaster.xlsx
@@ -397,17 +397,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,7 +415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>143</v>
       </c>
@@ -423,7 +423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>145</v>
       </c>
@@ -431,7 +431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>148</v>
       </c>
@@ -439,7 +439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>150</v>
       </c>
@@ -447,7 +447,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>520</v>
       </c>
@@ -455,7 +455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>628</v>
       </c>
@@ -463,7 +463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>629</v>
       </c>
@@ -471,7 +471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>630</v>
       </c>
@@ -479,7 +479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>717</v>
       </c>
@@ -487,7 +487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>718</v>
       </c>
@@ -495,7 +495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>902</v>
       </c>
@@ -503,154 +503,154 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
     </row>
   </sheetData>
